--- a/biology/Botanique/Platanthera_grandiflora/Platanthera_grandiflora.xlsx
+++ b/biology/Botanique/Platanthera_grandiflora/Platanthera_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platanthera grandiflora est une espèce de plantes à fleurs de la familles des Orchidaceae (les orchidées) présente en Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 27 à 120 cm de haut. Elle possède de 2 à 6 feuilles qui peuvent mesurer jusqu'à 24 cm de long. Ses fleurs (de 30 à 65 fleurs par inflorescence) sont de couleur variant entre lavande et pourpre, en passant par un riche magenta. Elles apparaissent entre le mois de juin et août.
 Il existe une variété de Platanthera grandiflora aux fleurs blanches (forma albiflora).
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Habituellement, les plants de Plantanthera grandiflora sont peu nombreux à un même endroit, parfois même solitaires. Il existe toutefois des colonies pouvant dépasser une centaine de plants.
 Au Canada, on retrouve le Platanthera grandiflora au Nouveau-Brunswick, à Terre-Neuve et au Labrador, en Nouvelle-Écosse, en Ontario, à l'Île-du-Prince-Édouard et au Québec.
@@ -578,7 +594,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Orchis grandiflora
 Habenaria fimbriata
